--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.03150383942339</v>
+        <v>6.662215666666666</v>
       </c>
       <c r="H2">
-        <v>5.03150383942339</v>
+        <v>19.986647</v>
       </c>
       <c r="I2">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="J2">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>15.43401338319777</v>
+        <v>59.76039431635199</v>
       </c>
       <c r="R2">
-        <v>15.43401338319777</v>
+        <v>537.8435488471679</v>
       </c>
       <c r="S2">
-        <v>0.1874577856006134</v>
+        <v>0.2418056822232745</v>
       </c>
       <c r="T2">
-        <v>0.1874577856006134</v>
+        <v>0.2418056822232744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.03150383942339</v>
+        <v>6.662215666666666</v>
       </c>
       <c r="H3">
-        <v>5.03150383942339</v>
+        <v>19.986647</v>
       </c>
       <c r="I3">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="J3">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>44.88843503383728</v>
+        <v>60.04035838457376</v>
       </c>
       <c r="R3">
-        <v>44.88843503383728</v>
+        <v>540.3632254611639</v>
       </c>
       <c r="S3">
-        <v>0.5452040517005625</v>
+        <v>0.2429384877090617</v>
       </c>
       <c r="T3">
-        <v>0.5452040517005625</v>
+        <v>0.2429384877090617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.03150383942339</v>
+        <v>6.662215666666666</v>
       </c>
       <c r="H4">
-        <v>5.03150383942339</v>
+        <v>19.986647</v>
       </c>
       <c r="I4">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="J4">
-        <v>0.7568457483505187</v>
+        <v>0.4964100230945138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>1.991140595189015</v>
+        <v>2.883124906736777</v>
       </c>
       <c r="R4">
-        <v>1.991140595189015</v>
+        <v>25.948124160631</v>
       </c>
       <c r="S4">
-        <v>0.02418391104934272</v>
+        <v>0.0116658531621777</v>
       </c>
       <c r="T4">
-        <v>0.02418391104934272</v>
+        <v>0.0116658531621777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.61648731384546</v>
+        <v>5.098534333333333</v>
       </c>
       <c r="H5">
-        <v>1.61648731384546</v>
+        <v>15.295603</v>
       </c>
       <c r="I5">
-        <v>0.2431542516494814</v>
+        <v>0.3798981709375522</v>
       </c>
       <c r="J5">
-        <v>0.2431542516494814</v>
+        <v>0.3798981709375522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>4.958534790369828</v>
+        <v>45.734097699648</v>
       </c>
       <c r="R5">
-        <v>4.958534790369828</v>
+        <v>411.606879296832</v>
       </c>
       <c r="S5">
-        <v>0.06022516169632498</v>
+        <v>0.1850517357129169</v>
       </c>
       <c r="T5">
-        <v>0.06022516169632498</v>
+        <v>0.1850517357129169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.61648731384546</v>
+        <v>5.098534333333333</v>
       </c>
       <c r="H6">
-        <v>1.61648731384546</v>
+        <v>15.295603</v>
       </c>
       <c r="I6">
-        <v>0.2431542516494814</v>
+        <v>0.3798981709375522</v>
       </c>
       <c r="J6">
-        <v>0.2431542516494814</v>
+        <v>0.3798981709375522</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>14.42145093918673</v>
+        <v>45.94835170842622</v>
       </c>
       <c r="R6">
-        <v>14.42145093918673</v>
+        <v>413.535165375836</v>
       </c>
       <c r="S6">
-        <v>0.1751594475841844</v>
+        <v>0.1859186616653702</v>
       </c>
       <c r="T6">
-        <v>0.1751594475841844</v>
+        <v>0.1859186616653702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.098534333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.295603</v>
+      </c>
+      <c r="I7">
+        <v>0.3798981709375522</v>
+      </c>
+      <c r="J7">
+        <v>0.3798981709375522</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.298273</v>
+      </c>
+      <c r="O7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q7">
+        <v>2.206429821513222</v>
+      </c>
+      <c r="R7">
+        <v>19.857868393619</v>
+      </c>
+      <c r="S7">
+        <v>0.008927773559265079</v>
+      </c>
+      <c r="T7">
+        <v>0.008927773559265079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.660042</v>
+      </c>
+      <c r="H8">
+        <v>4.980126</v>
+      </c>
+      <c r="I8">
+        <v>0.1236918059679339</v>
+      </c>
+      <c r="J8">
+        <v>0.123691805967934</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.970048</v>
+      </c>
+      <c r="N8">
+        <v>26.910144</v>
+      </c>
+      <c r="O8">
+        <v>0.487108783009476</v>
+      </c>
+      <c r="P8">
+        <v>0.4871087830094759</v>
+      </c>
+      <c r="Q8">
+        <v>14.890656422016</v>
+      </c>
+      <c r="R8">
+        <v>134.015907798144</v>
+      </c>
+      <c r="S8">
+        <v>0.06025136507328454</v>
+      </c>
+      <c r="T8">
+        <v>0.06025136507328454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.61648731384546</v>
-      </c>
-      <c r="H7">
-        <v>1.61648731384546</v>
-      </c>
-      <c r="I7">
-        <v>0.2431542516494814</v>
-      </c>
-      <c r="J7">
-        <v>0.2431542516494814</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="N7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="O7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="P7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="Q7">
-        <v>0.6397001005915158</v>
-      </c>
-      <c r="R7">
-        <v>0.6397001005915158</v>
-      </c>
-      <c r="S7">
-        <v>0.007769642368972057</v>
-      </c>
-      <c r="T7">
-        <v>0.007769642368972057</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.660042</v>
+      </c>
+      <c r="H9">
+        <v>4.980126</v>
+      </c>
+      <c r="I9">
+        <v>0.1236918059679339</v>
+      </c>
+      <c r="J9">
+        <v>0.123691805967934</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.012070666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.036212</v>
+      </c>
+      <c r="O9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="P9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="Q9">
+        <v>14.96041581363467</v>
+      </c>
+      <c r="R9">
+        <v>134.643742322712</v>
+      </c>
+      <c r="S9">
+        <v>0.06053362922958407</v>
+      </c>
+      <c r="T9">
+        <v>0.06053362922958407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.660042</v>
+      </c>
+      <c r="H10">
+        <v>4.980126</v>
+      </c>
+      <c r="I10">
+        <v>0.1236918059679339</v>
+      </c>
+      <c r="J10">
+        <v>0.123691805967934</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.298273</v>
+      </c>
+      <c r="O10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q10">
+        <v>0.7183959024886667</v>
+      </c>
+      <c r="R10">
+        <v>6.465563122398001</v>
+      </c>
+      <c r="S10">
+        <v>0.00290681166506535</v>
+      </c>
+      <c r="T10">
+        <v>0.00290681166506535</v>
       </c>
     </row>
   </sheetData>
